--- a/biology/Botanique/Triticum_polonicum/Triticum_polonicum.xlsx
+++ b/biology/Botanique/Triticum_polonicum/Triticum_polonicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Triticum polonicum, le blé de Pologne ou blé de Galice,  est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), de la sous-famille des Pooideae.
-C'est une céréale,  proche parente du blé cultivé, anciennement cultivée dans le bassin méditerranéen. Il est aujourd'hui en voie de disparition[2].
+C'est une céréale,  proche parente du blé cultivé, anciennement cultivée dans le bassin méditerranéen. Il est aujourd'hui en voie de disparition.
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Catalogue of Life                                   (30 mai 2018)[3]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catalogue of Life                                   (30 mai 2018)
 Agropyron  brevissimum P.Beauv.
 Deina polonica (L.) Alef.
 Deina polonica var. alba  Alef.
@@ -544,8 +561,43 @@
 Triticum polonicum var.  tibeticum Udachin
 Triticum spinulosum Lag.
 Triticum turgidum var.  polonicum (L.) Yan ex P.C.Kuo
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (30 mai 2018)[4] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Triticum_polonicum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticum_polonicum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (30 mai 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Triticum polonicum subsp. abyssinicum (Steud.) Vavilov
 Triticum polonicum subsp. durum Á. Löve
